--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,6 +2789,67 @@
         <v>1</v>
       </c>
       <c r="S38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>112</v>
+      </c>
+      <c r="E39" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="J39" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O39" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2830,24 +2891,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2856,11 +2917,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2869,11 +2930,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2882,37 +2943,37 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45311</v>
+        <v>45314</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2921,11 +2982,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2934,24 +2995,24 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2960,11 +3021,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2973,11 +3034,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2986,24 +3047,24 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3012,50 +3073,50 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45333</v>
+        <v>45335</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3064,20 +3125,20 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3085,29 +3146,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3116,11 +3177,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3129,11 +3190,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3142,24 +3203,24 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3168,11 +3229,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3181,11 +3242,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3194,50 +3255,50 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3246,11 +3307,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3259,24 +3320,24 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3285,24 +3346,24 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3311,11 +3372,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3324,11 +3385,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3337,11 +3398,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3350,24 +3411,24 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3376,11 +3437,11 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3389,27 +3450,14 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2851,6 +2851,128 @@
       </c>
       <c r="S39" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>105</v>
+      </c>
+      <c r="E40" t="n">
+        <v>97</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J40" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>112</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="N40" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>117</v>
+      </c>
+      <c r="E41" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="J41" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>128</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,11 +3013,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2904,11 +3026,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45307</v>
+        <v>45311</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2917,24 +3039,24 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45311</v>
+        <v>45315</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2943,24 +3065,24 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45315</v>
+        <v>45319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2969,37 +3091,37 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45319</v>
+        <v>45322</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3008,11 +3130,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45322</v>
+        <v>45326</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3021,50 +3143,50 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45326</v>
+        <v>45332</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45328</v>
+        <v>45333</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3073,11 +3195,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45333</v>
+        <v>45344</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3086,37 +3208,37 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45335</v>
+        <v>45345</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3125,11 +3247,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3138,24 +3260,24 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3164,11 +3286,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45354</v>
+        <v>45357</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3177,37 +3299,37 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45355</v>
+        <v>45359</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3216,11 +3338,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3229,24 +3351,24 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45363</v>
+        <v>45367</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45365</v>
+        <v>45371</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3255,11 +3377,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45367</v>
+        <v>45373</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3268,24 +3390,24 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45371</v>
+        <v>45375</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3294,63 +3416,63 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45375</v>
+        <v>45378</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45377</v>
+        <v>45380</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3359,11 +3481,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3372,11 +3494,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3385,37 +3507,37 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3424,40 +3546,14 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2973,6 +2973,128 @@
       </c>
       <c r="S41" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>134</v>
+      </c>
+      <c r="E42" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="J42" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>129</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="N42" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>102</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>18</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J43" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>97</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="N43" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,24 +3135,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45311</v>
+        <v>45315</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3039,24 +3161,24 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45315</v>
+        <v>45319</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3065,37 +3187,37 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45319</v>
+        <v>45322</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3104,11 +3226,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45322</v>
+        <v>45326</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3117,50 +3239,50 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45326</v>
+        <v>45332</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45328</v>
+        <v>45333</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3169,11 +3291,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45333</v>
+        <v>45344</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3182,37 +3304,37 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45335</v>
+        <v>45345</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3221,11 +3343,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3234,24 +3356,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3260,11 +3382,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45354</v>
+        <v>45357</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3273,37 +3395,37 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45355</v>
+        <v>45359</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3312,11 +3434,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3325,24 +3447,24 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45363</v>
+        <v>45367</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45365</v>
+        <v>45371</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3351,11 +3473,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45367</v>
+        <v>45373</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3364,24 +3486,24 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45371</v>
+        <v>45375</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3390,63 +3512,63 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45375</v>
+        <v>45378</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45377</v>
+        <v>45380</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3455,11 +3577,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3468,11 +3590,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3481,37 +3603,37 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3520,40 +3642,14 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3094,6 +3094,128 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>111</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="J44" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>109</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="N44" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>140</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J45" t="n">
+        <v>139</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>114</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3135,24 +3257,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45315</v>
+        <v>45319</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3161,37 +3283,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45319</v>
+        <v>45322</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3200,11 +3322,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45322</v>
+        <v>45326</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3213,50 +3335,50 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45326</v>
+        <v>45332</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45328</v>
+        <v>45333</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3265,11 +3387,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45333</v>
+        <v>45344</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3278,37 +3400,37 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45335</v>
+        <v>45345</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3317,11 +3439,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3330,24 +3452,24 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3356,11 +3478,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45354</v>
+        <v>45357</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3369,37 +3491,37 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45355</v>
+        <v>45359</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3408,11 +3530,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3421,24 +3543,24 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45363</v>
+        <v>45367</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45365</v>
+        <v>45371</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3447,11 +3569,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45367</v>
+        <v>45373</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3460,24 +3582,24 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45371</v>
+        <v>45375</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3486,63 +3608,63 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45375</v>
+        <v>45378</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45377</v>
+        <v>45380</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3551,11 +3673,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3564,11 +3686,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3577,37 +3699,37 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3616,40 +3738,14 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,6 +3220,128 @@
       </c>
       <c r="S45" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>107</v>
+      </c>
+      <c r="E46" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J46" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>83</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="N46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>17</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>104</v>
+      </c>
+      <c r="E47" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>120</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>126</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3256,496 +3381,470 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45317</v>
+      <c r="A2" s="3" t="n">
+        <v>45320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45375</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>NOP</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45319</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>CHO</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45333</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45335</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45361</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45363</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45365</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45375</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45377</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
       <c r="C37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45319</v>
       </c>
       <c r="C47" t="n">
@@ -3341,6 +3341,67 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>101</v>
+      </c>
+      <c r="E48" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="G48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="J48" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>107</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,11 +3443,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3395,11 +3456,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3408,11 +3469,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3421,24 +3482,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3447,50 +3508,50 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45333</v>
+        <v>45335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3499,20 +3560,20 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3520,29 +3581,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3551,11 +3612,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3564,11 +3625,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3577,24 +3638,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3603,11 +3664,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3616,11 +3677,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3629,50 +3690,50 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3681,11 +3742,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3694,24 +3755,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3720,24 +3781,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3746,11 +3807,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3759,11 +3820,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3772,11 +3833,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3785,24 +3846,24 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3811,11 +3872,11 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3824,27 +3885,14 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -3348,7 +3348,7 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>45320</v>
       </c>
       <c r="C48" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3403,6 +3403,67 @@
       </c>
       <c r="S48" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>105</v>
+      </c>
+      <c r="E49" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>24</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,11 +3504,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3456,11 +3517,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3469,24 +3530,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3495,50 +3556,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45333</v>
+        <v>45335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3547,20 +3608,20 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3568,29 +3629,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3599,11 +3660,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3612,11 +3673,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3625,24 +3686,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,11 +3712,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3664,11 +3725,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3677,50 +3738,50 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3729,11 +3790,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3742,24 +3803,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,24 +3829,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,11 +3855,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3807,11 +3868,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3820,11 +3881,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3833,24 +3894,24 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3859,11 +3920,11 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3872,27 +3933,14 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3409,7 +3409,7 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="C49" t="n">
@@ -3463,6 +3463,67 @@
         <v>1</v>
       </c>
       <c r="S49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>126</v>
+      </c>
+      <c r="E50" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>106</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,11 +3565,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3517,24 +3578,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3543,50 +3604,50 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45333</v>
+        <v>45335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3595,20 +3656,20 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3616,29 +3677,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3647,11 +3708,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3660,11 +3721,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3673,24 +3734,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3699,11 +3760,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3712,11 +3773,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3725,50 +3786,50 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3777,11 +3838,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3790,24 +3851,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3816,24 +3877,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3842,11 +3903,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3855,11 +3916,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3868,11 +3929,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3881,24 +3942,24 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3907,11 +3968,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3920,27 +3981,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="C50" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3524,6 +3524,67 @@
         <v>1</v>
       </c>
       <c r="S50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>135</v>
+      </c>
+      <c r="E51" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J51" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>127</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>120</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,24 +3626,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3591,50 +3652,50 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45333</v>
+        <v>45335</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3643,20 +3704,20 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3664,29 +3725,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3695,11 +3756,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3708,11 +3769,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3721,24 +3782,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3747,11 +3808,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3760,11 +3821,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3773,50 +3834,50 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3825,11 +3886,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3838,24 +3899,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3864,24 +3925,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3890,11 +3951,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3903,11 +3964,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3916,11 +3977,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3929,24 +3990,24 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3955,11 +4016,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3968,27 +4029,14 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45326</v>
       </c>
       <c r="C51" t="n">
@@ -3586,6 +3586,67 @@
       </c>
       <c r="S51" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>117</v>
+      </c>
+      <c r="E52" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J52" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>124</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="N52" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="O52" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,11 +3687,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3639,50 +3700,50 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45333</v>
+        <v>45335</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3691,20 +3752,20 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -3712,29 +3773,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3743,11 +3804,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3756,11 +3817,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3769,24 +3830,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3795,11 +3856,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3808,11 +3869,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3821,50 +3882,50 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3873,11 +3934,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3886,24 +3947,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,24 +3973,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,11 +3999,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3951,11 +4012,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3964,11 +4025,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3977,24 +4038,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4003,11 +4064,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4016,27 +4077,14 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45328</v>
       </c>
       <c r="C52" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3647,6 +3647,128 @@
       </c>
       <c r="S52" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>111</v>
+      </c>
+      <c r="E53" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J53" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>146</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>141</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>127</v>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="J54" t="n">
+        <v>127</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>113</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="N54" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="O54" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>113</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3660,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,11 +3809,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3700,11 +3822,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45333</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3713,37 +3835,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45335</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3752,11 +3874,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3765,24 +3887,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3791,11 +3913,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45354</v>
+        <v>45357</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3804,37 +3926,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45355</v>
+        <v>45359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3843,11 +3965,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3856,24 +3978,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45363</v>
+        <v>45367</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45365</v>
+        <v>45371</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3882,11 +4004,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45367</v>
+        <v>45373</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3895,24 +4017,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45371</v>
+        <v>45375</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3921,63 +4043,63 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45375</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45377</v>
+        <v>45380</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,11 +4108,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3999,11 +4121,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4012,37 +4134,37 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4051,40 +4173,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -3714,7 +3714,7 @@
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>45333</v>
       </c>
       <c r="C54" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,67 @@
         <v>1</v>
       </c>
       <c r="S54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>127</v>
+      </c>
+      <c r="E55" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="J55" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>113</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="O55" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,24 +3870,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3835,20 +3896,20 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -3856,29 +3917,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3887,11 +3948,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3900,11 +3961,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3913,24 +3974,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3939,11 +4000,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3952,11 +4013,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3965,50 +4026,50 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4017,11 +4078,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4030,24 +4091,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,24 +4117,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,11 +4143,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4095,11 +4156,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4108,11 +4169,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4121,24 +4182,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4147,11 +4208,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4160,27 +4221,14 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,67 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>129</v>
+      </c>
+      <c r="E56" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J56" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>107</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,11 +3931,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3883,20 +3944,20 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -3904,29 +3965,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3935,11 +3996,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3948,11 +4009,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3961,24 +4022,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3987,11 +4048,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4000,11 +4061,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4013,50 +4074,50 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4065,11 +4126,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4078,24 +4139,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,24 +4165,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,11 +4191,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4143,11 +4204,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4156,11 +4217,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4169,24 +4230,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4195,11 +4256,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4208,27 +4269,14 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C56" t="n">
@@ -3890,6 +3890,67 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>147</v>
+      </c>
+      <c r="E57" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="G57" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="J57" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>106</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11</v>
+      </c>
+      <c r="O57" t="n">
+        <v>25</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,20 +3992,20 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3952,29 +4013,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3983,11 +4044,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3996,11 +4057,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4009,24 +4070,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4035,11 +4096,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4048,11 +4109,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4061,50 +4122,50 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4113,11 +4174,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4126,24 +4187,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,24 +4213,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,11 +4239,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4191,11 +4252,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4204,11 +4265,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4217,24 +4278,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4243,11 +4304,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4256,27 +4317,14 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="C57" t="n">
@@ -3951,6 +3951,67 @@
         <v>1</v>
       </c>
       <c r="S57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>123</v>
+      </c>
+      <c r="E58" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8</v>
+      </c>
+      <c r="H58" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J58" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>110</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>107</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,7 +4053,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4000,29 +4061,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4031,11 +4092,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4044,11 +4105,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4057,24 +4118,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4083,11 +4144,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4096,11 +4157,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4109,50 +4170,50 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4161,11 +4222,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4174,24 +4235,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,24 +4261,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,11 +4287,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4239,11 +4300,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4252,11 +4313,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4265,24 +4326,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4291,11 +4352,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4304,27 +4365,14 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -3958,7 +3958,7 @@
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>45347</v>
       </c>
       <c r="C58" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4012,6 +4012,67 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>112</v>
+      </c>
+      <c r="E59" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="G59" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="J59" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>95</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="N59" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="O59" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,24 +4114,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4079,11 +4140,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4092,11 +4153,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4105,24 +4166,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4131,11 +4192,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4144,11 +4205,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4157,50 +4218,50 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4209,11 +4270,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4222,24 +4283,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,24 +4309,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,11 +4335,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4287,11 +4348,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4300,11 +4361,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4313,24 +4374,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4339,11 +4400,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4352,27 +4413,14 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45349</v>
       </c>
       <c r="C59" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,6 +4074,67 @@
       </c>
       <c r="S59" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>118</v>
+      </c>
+      <c r="E60" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="J60" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>132</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,11 +4175,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4127,11 +4188,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4140,11 +4201,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4153,24 +4214,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4179,11 +4240,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4192,11 +4253,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4205,50 +4266,50 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4257,11 +4318,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4270,24 +4331,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,24 +4357,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,11 +4383,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4335,11 +4396,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4348,11 +4409,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4361,24 +4422,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4387,11 +4448,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4400,27 +4461,14 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45351</v>
       </c>
       <c r="C60" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4135,6 +4135,67 @@
       </c>
       <c r="S60" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>118</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J61" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>110</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="N61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O61" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>109</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,11 +4236,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4188,11 +4249,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4201,24 +4262,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4227,11 +4288,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4240,11 +4301,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4253,50 +4314,50 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4305,11 +4366,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4318,24 +4379,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,24 +4405,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,11 +4431,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4383,11 +4444,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4396,11 +4457,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4409,24 +4470,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4435,11 +4496,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4448,27 +4509,14 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45354</v>
       </c>
       <c r="C61" t="n">
@@ -4196,6 +4196,67 @@
       </c>
       <c r="S61" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>104</v>
+      </c>
+      <c r="E62" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J62" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>116</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="N62" t="n">
+        <v>18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,11 +4297,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4249,24 +4310,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4275,11 +4336,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4288,11 +4349,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4301,50 +4362,50 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4353,11 +4414,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4366,24 +4427,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,24 +4453,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,11 +4479,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4431,11 +4492,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4444,11 +4505,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4457,24 +4518,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4483,11 +4544,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4496,27 +4557,14 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45355</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,67 @@
       </c>
       <c r="S62" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>128</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="G63" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="J63" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>120</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="N63" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="O63" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,24 +4358,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4323,11 +4384,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4336,11 +4397,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4349,50 +4410,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4401,11 +4462,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4414,24 +4475,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,24 +4501,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,11 +4527,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4479,11 +4540,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4492,11 +4553,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4505,24 +4566,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4531,11 +4592,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4544,27 +4605,14 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45357</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4317,6 +4317,67 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>107</v>
+      </c>
+      <c r="E64" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>20</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="J64" t="n">
+        <v>115.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10</v>
+      </c>
+      <c r="O64" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,11 +4419,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4371,11 +4432,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4384,11 +4445,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4397,50 +4458,50 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4449,11 +4510,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4462,24 +4523,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,24 +4549,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,11 +4575,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4527,11 +4588,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4540,11 +4601,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4553,24 +4614,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4579,11 +4640,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4592,27 +4653,14 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45359</v>
       </c>
       <c r="C64" t="n">
@@ -4378,6 +4378,67 @@
         <v>1</v>
       </c>
       <c r="S64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>124</v>
+      </c>
+      <c r="E65" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="J65" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>93</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="N65" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,11 +4480,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4432,11 +4493,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4445,50 +4506,50 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4497,11 +4558,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4510,24 +4571,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,24 +4597,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,11 +4623,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4575,11 +4636,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4588,11 +4649,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4601,24 +4662,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4627,11 +4688,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4640,27 +4701,14 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45361</v>
       </c>
       <c r="C65" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4440,6 +4440,67 @@
       </c>
       <c r="S65" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>111</v>
+      </c>
+      <c r="E66" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>25</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J66" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>121</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>119</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,11 +4541,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4493,50 +4554,50 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4545,11 +4606,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4558,24 +4619,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,24 +4645,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,11 +4671,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4623,11 +4684,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4636,11 +4697,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4649,24 +4710,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4675,11 +4736,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4688,27 +4749,14 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45363</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4501,67 @@
       </c>
       <c r="S66" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>126</v>
+      </c>
+      <c r="E67" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H67" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="J67" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>119</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="N67" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="O67" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,50 +4602,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4593,11 +4654,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4606,24 +4667,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,24 +4693,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,11 +4719,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4671,11 +4732,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4684,11 +4745,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4697,24 +4758,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4723,11 +4784,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4736,27 +4797,14 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45365</v>
       </c>
       <c r="C67" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4561,6 +4561,67 @@
         <v>1</v>
       </c>
       <c r="S67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>118</v>
+      </c>
+      <c r="E68" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J68" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>112</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="N68" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,37 +4663,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4641,11 +4702,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4654,24 +4715,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4680,24 +4741,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,11 +4767,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4719,11 +4780,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4732,11 +4793,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4745,24 +4806,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4771,11 +4832,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4784,27 +4845,14 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C68" t="n">
@@ -4622,6 +4622,67 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>119</v>
+      </c>
+      <c r="E69" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9</v>
+      </c>
+      <c r="H69" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="J69" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>107</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="O69" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,7 +4697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,24 +4724,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4689,11 +4750,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4702,24 +4763,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4728,24 +4789,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4754,11 +4815,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4767,11 +4828,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4780,11 +4841,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4793,24 +4854,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4819,11 +4880,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4832,27 +4893,14 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45371</v>
       </c>
       <c r="C69" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4683,6 +4683,67 @@
         <v>1</v>
       </c>
       <c r="S69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>123</v>
+      </c>
+      <c r="E70" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="J70" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>103</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="N70" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="O70" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,11 +4785,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4737,11 +4798,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4750,24 +4811,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4776,24 +4837,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4802,11 +4863,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4815,11 +4876,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4828,11 +4889,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4841,24 +4902,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4867,11 +4928,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4880,27 +4941,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45373</v>
       </c>
       <c r="C70" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4745,6 +4745,67 @@
       </c>
       <c r="S70" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>93</v>
+      </c>
+      <c r="E71" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="G71" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="J71" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>118</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="N71" t="n">
+        <v>14</v>
+      </c>
+      <c r="O71" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,11 +4846,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4798,24 +4859,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,24 +4885,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,11 +4911,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4863,11 +4924,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4876,11 +4937,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4889,24 +4950,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4915,11 +4976,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4928,27 +4989,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45375</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4806,6 +4806,67 @@
       </c>
       <c r="S71" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>119</v>
+      </c>
+      <c r="E72" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J72" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>112</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="N72" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O72" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,24 +4907,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,24 +4933,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,11 +4959,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4911,11 +4972,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4924,11 +4985,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4937,24 +4998,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4963,11 +5024,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4976,27 +5037,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/OKC.xlsx
+++ b/data/CurrentSeason/OKC.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45377</v>
       </c>
       <c r="C72" t="n">
@@ -4867,6 +4867,67 @@
       </c>
       <c r="S72" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>126</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="G73" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="J73" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>132</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="N73" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O73" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,24 +4981,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,11 +5007,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4959,11 +5020,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4972,11 +5033,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4985,24 +5046,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5011,11 +5072,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5024,27 +5085,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
